--- a/dados/regioes.xlsx
+++ b/dados/regioes.xlsx
@@ -345,7 +345,7 @@
     <t xml:space="preserve">MUSSURUNGA I</t>
   </si>
   <si>
-    <t xml:space="preserve">ALTO DO COQUEIRO</t>
+    <t xml:space="preserve">ALTO DO COQUEIRINHO</t>
   </si>
   <si>
     <t xml:space="preserve">NOVA BRASILIA-ITAPUA</t>
@@ -483,16 +483,16 @@
     <t xml:space="preserve">BOCA DA MATA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAJAZEIRAS V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAJAZEIRAS VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAJAZEIRAS X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAJAZEIRA XI</t>
+    <t xml:space="preserve">CAJAZEIRAS 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAJAZEIRAS 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAJAZEIRAS 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAJAZEIRA 11</t>
   </si>
   <si>
     <t xml:space="preserve">PARQUE SAO PAULO</t>
@@ -858,8 +858,8 @@
   </sheetPr>
   <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
